--- a/socket 网络编程/socket实现服务器监控/server.xlsx
+++ b/socket 网络编程/socket实现服务器监控/server.xlsx
@@ -462,27 +462,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -499,27 +499,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,27 +536,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,27 +573,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -610,27 +610,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -647,27 +647,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -684,27 +684,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,27 +721,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -758,27 +758,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -795,27 +795,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -832,27 +832,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -869,27 +869,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -906,27 +906,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -943,27 +943,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -980,27 +980,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1054,27 +1054,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1096,22 +1096,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1128,27 +1128,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43.7%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.42Gb</t>
+          <t>0.39Gb</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.11Gb</t>
+          <t>0.9Gb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.09Gb</t>
+          <t>1.12Gb</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
